--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_214__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_214__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,19 +5987,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>9.710689544677734</c:v>
+                  <c:v>9.710684776306152</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.00531005859375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.15670776367188</c:v>
+                  <c:v>64.15670013427734</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>75.41987609863281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.59877777099609</c:v>
+                  <c:v>45.59878540039062</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53.03372955322266</c:v>
@@ -6017,7 +6017,7 @@
                   <c:v>40.8237190246582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.32777786254883</c:v>
+                  <c:v>24.32777404785156</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>70.37622833251953</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>82.94120788574219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.3713989257812</c:v>
+                  <c:v>104.3714065551758</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>76.70177459716797</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>82.57939147949219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.45238494873047</c:v>
+                  <c:v>78.45237731933594</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>75.67328643798828</c:v>
@@ -6053,16 +6053,16 @@
                   <c:v>78.619873046875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.86569213867188</c:v>
+                  <c:v>41.86569595336914</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>55.3536376953125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90.24569702148438</c:v>
+                  <c:v>90.24568939208984</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.90874481201172</c:v>
+                  <c:v>58.90873718261719</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>53.61894226074219</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>70.37545776367188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>88.7755126953125</c:v>
+                  <c:v>88.77550506591797</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>39.78866577148438</c:v>
@@ -6119,13 +6119,13 @@
                   <c:v>85.25897979736328</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.92191314697266</c:v>
+                  <c:v>74.92190551757812</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>38.82417297363281</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.69273376464844</c:v>
+                  <c:v>53.69272613525391</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>85.4512939453125</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>77.48677062988281</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>78.13494110107422</c:v>
+                  <c:v>78.13493347167969</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>40.00426483154297</c:v>
@@ -6158,10 +6158,10 @@
                   <c:v>75.45311737060547</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>66.69441223144531</c:v>
+                  <c:v>66.69440460205078</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.74777221679688</c:v>
+                  <c:v>64.74776458740234</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>101.2836380004883</c:v>
@@ -6170,7 +6170,7 @@
                   <c:v>73.68562316894531</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>81.37718200683594</c:v>
+                  <c:v>81.37717437744141</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>94.54859924316406</c:v>
@@ -6185,7 +6185,7 @@
                   <c:v>74.96429443359375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46.05216217041016</c:v>
+                  <c:v>46.05216979980469</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>61.98209381103516</c:v>
@@ -6194,19 +6194,19 @@
                   <c:v>73.31291198730469</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>84.56035614013672</c:v>
+                  <c:v>84.56034851074219</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>46.09404754638672</c:v>
+                  <c:v>46.09405517578125</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>41.64307403564453</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>34.15225219726562</c:v>
+                  <c:v>34.15224838256836</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43.13822937011719</c:v>
+                  <c:v>43.13822555541992</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>72.45584106445312</c:v>
@@ -6215,22 +6215,22 @@
                   <c:v>66.195068359375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>81.52616882324219</c:v>
+                  <c:v>81.52617645263672</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42.38205337524414</c:v>
+                  <c:v>42.38205718994141</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>76.68794250488281</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>55.06623077392578</c:v>
+                  <c:v>55.06623840332031</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>65.66390991210938</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>20.41363906860352</c:v>
+                  <c:v>20.41363334655762</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>77.31785583496094</c:v>
@@ -6239,7 +6239,7 @@
                   <c:v>53.04780578613281</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>90.64136505126953</c:v>
+                  <c:v>90.64137268066406</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>42.8587646484375</c:v>
@@ -6248,13 +6248,13 @@
                   <c:v>70.80371856689453</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>81.07232666015625</c:v>
+                  <c:v>81.07231903076172</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>55.79804229736328</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.87757873535156</c:v>
+                  <c:v>64.87757110595703</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>76.00611114501953</c:v>
@@ -6263,7 +6263,7 @@
                   <c:v>81.32324981689453</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>41.44086837768555</c:v>
+                  <c:v>41.44086456298828</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>85.9464111328125</c:v>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>9.710689544677734</v>
+        <v>9.710684776306152</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>58.1033</v>
       </c>
       <c r="F4">
-        <v>64.15670776367188</v>
+        <v>64.15670013427734</v>
       </c>
       <c r="G4">
         <v>105</v>
@@ -7107,7 +7107,7 @@
         <v>43.4016</v>
       </c>
       <c r="F6">
-        <v>45.59877777099609</v>
+        <v>45.59878540039062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>24.32777786254883</v>
+        <v>24.32777404785156</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>90.83759999999999</v>
       </c>
       <c r="F17">
-        <v>104.3713989257812</v>
+        <v>104.3714065551758</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>82.3721</v>
       </c>
       <c r="F20">
-        <v>78.45238494873047</v>
+        <v>78.45237731933594</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>28.8436</v>
       </c>
       <c r="F24">
-        <v>41.86569213867188</v>
+        <v>41.86569595336914</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>90.24569702148438</v>
+        <v>90.24568939208984</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>68.3349</v>
       </c>
       <c r="F27">
-        <v>58.90874481201172</v>
+        <v>58.90873718261719</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>91.84520000000001</v>
       </c>
       <c r="F42">
-        <v>88.7755126953125</v>
+        <v>88.77550506591797</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>59.3867</v>
       </c>
       <c r="F46">
-        <v>74.92191314697266</v>
+        <v>74.92190551757812</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>56.8273</v>
       </c>
       <c r="F48">
-        <v>53.69273376464844</v>
+        <v>53.69272613525391</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>78.4419</v>
       </c>
       <c r="F53">
-        <v>78.13494110107422</v>
+        <v>78.13493347167969</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>67.5008</v>
       </c>
       <c r="F59">
-        <v>66.69441223144531</v>
+        <v>66.69440460205078</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>57.192</v>
       </c>
       <c r="F60">
-        <v>64.74777221679688</v>
+        <v>64.74776458740234</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>81.5342</v>
       </c>
       <c r="F63">
-        <v>81.37718200683594</v>
+        <v>81.37717437744141</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>41.4911</v>
       </c>
       <c r="F68">
-        <v>46.05216217041016</v>
+        <v>46.05216979980469</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>80.3858</v>
       </c>
       <c r="F71">
-        <v>84.56035614013672</v>
+        <v>84.56034851074219</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>50.6358</v>
       </c>
       <c r="F72">
-        <v>46.09404754638672</v>
+        <v>46.09405517578125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>27.7657</v>
       </c>
       <c r="F74">
-        <v>34.15225219726562</v>
+        <v>34.15224838256836</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>43.13822937011719</v>
+        <v>43.13822555541992</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>95.4156</v>
       </c>
       <c r="F78">
-        <v>81.52616882324219</v>
+        <v>81.52617645263672</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>40.3913</v>
       </c>
       <c r="F79">
-        <v>42.38205337524414</v>
+        <v>42.38205718994141</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>80.995</v>
       </c>
       <c r="F81">
-        <v>55.06623077392578</v>
+        <v>55.06623840332031</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>11.5216</v>
       </c>
       <c r="F83">
-        <v>20.41363906860352</v>
+        <v>20.41363334655762</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>89.0386</v>
       </c>
       <c r="F86">
-        <v>90.64136505126953</v>
+        <v>90.64137268066406</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>81.2565</v>
       </c>
       <c r="F89">
-        <v>81.07232666015625</v>
+        <v>81.07231903076172</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>57.3106</v>
       </c>
       <c r="F91">
-        <v>64.87757873535156</v>
+        <v>64.87757110595703</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>45.8769</v>
       </c>
       <c r="F94">
-        <v>41.44086837768555</v>
+        <v>41.44086456298828</v>
       </c>
     </row>
     <row r="95" spans="1:6">
